--- a/output/physical_parameters.xlsx
+++ b/output/physical_parameters.xlsx
@@ -484,54 +484,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>179.0°</t>
+          <t>-63.4°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120.13</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17800.00</t>
+          <t>12222.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>955.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12505.76</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>389.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1299.68</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1800.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17402.45</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1746.32</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,54 +535,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>179.0°</t>
+          <t>-63.4°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120.13</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17679.89</t>
+          <t>12303.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>792.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1800.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17282.34</t>
+          <t>12553.39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>294.13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1746.32</t>
+          <t>1322.21</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,50 +586,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>179.0°</t>
+          <t>-63.4°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120.13</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17559.79</t>
+          <t>12366.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>667.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1800.00</t>
+          <t>1400.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17162.23</t>
+          <t>12679.66</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1746.32</t>
+          <t>1277.50</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/physical_parameters.xlsx
+++ b/output/physical_parameters.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-63.4°</t>
+          <t>-61.0°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,40 +494,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12222.27</t>
+          <t>11231.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>955.83</t>
+          <t>1581.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12505.76</t>
+          <t>11891.48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>389.32</t>
+          <t>389.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1299.68</t>
+          <t>1336.10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -535,7 +539,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-63.4°</t>
+          <t>-61.0°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,32 +549,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12303.76</t>
+          <t>11299.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>792.99</t>
+          <t>1458.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12553.39</t>
+          <t>11968.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>294.13</t>
+          <t>250.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1322.21</t>
+          <t>1323.21</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -586,7 +590,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-63.4°</t>
+          <t>-61.0°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -596,37 +600,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12366.41</t>
+          <t>11367.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>667.79</t>
+          <t>1336.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12679.66</t>
+          <t>12097.84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1277.50</t>
+          <t>1231.21</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/output/physical_parameters.xlsx
+++ b/output/physical_parameters.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,10 +469,20 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>投放时刻</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>起爆延迟</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>有效干扰时长(s)</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>主要干扰导弹</t>
         </is>
@@ -484,22 +494,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-61.0°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>131.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11231.85</t>
+          <t>17800.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1581.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,27 +519,37 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11891.48</t>
+          <t>17339.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>389.24</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1336.10</t>
+          <t>1739.97</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>M1</t>
         </is>
       </c>
     </row>
@@ -539,22 +559,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-61.0°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>131.61</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11299.65</t>
+          <t>17578.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1458.59</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -564,25 +584,39 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11968.38</t>
+          <t>17027.45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>250.30</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1323.21</t>
+          <t>1713.98</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -590,54 +624,824 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-61.0°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>131.61</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17332.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16674.73</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1677.50</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12293.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>821.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12649.58</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>120.76</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1241.91</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12375.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>659.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12689.04</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1277.50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12446.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>520.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12492.98</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>429.16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1397.32</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80.4°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>140.00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11367.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6433.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-446.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6484.32</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-145.60</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>676.71</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80.4°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6456.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-308.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6486.66</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-131.79</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>691.97</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80.4°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6480.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-170.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6531.16</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>130.46</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>676.71</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-60.5°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11235.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1583.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11906.96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>397.94</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>1336.10</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-60.5°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11304.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1461.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>1800.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>12097.84</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1231.21</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11948.34</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>324.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1373.46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-60.5°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11378.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1331.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12121.45</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1231.63</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12888.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-110.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12880.54</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1293.06</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12881.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12881.79</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12870.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>190.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12863.75</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>305.47</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1294.70</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>19.73</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/physical_parameters.xlsx
+++ b/output/physical_parameters.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,57 +494,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>93.7°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>110.92</t>
+          <t>131.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12877.23</t>
+          <t>17800.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-116.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1300.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12868.64</t>
+          <t>17339.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1293.06</t>
+          <t>1739.97</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -559,57 +559,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>93.7°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>110.92</t>
+          <t>131.61</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12870.01</t>
+          <t>17578.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1300.00</t>
+          <t>1800.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12869.62</t>
+          <t>17027.45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1299.99</t>
+          <t>1713.98</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -624,60 +624,824 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93.7°</t>
+          <t>179.6°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110.92</t>
+          <t>131.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12862.11</t>
+          <t>17332.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>115.76</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16674.73</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1677.50</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12275.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>856.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12486.05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>442.79</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1344.76</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12375.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>659.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12689.04</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1277.50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-63.1°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>138.35</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12446.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>520.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12492.98</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>429.16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1397.32</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6437.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-447.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6488.87</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-146.37</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>676.71</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6460.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-309.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6491.24</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-132.57</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>691.97</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6485.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-164.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6490.77</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-135.33</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>699.78</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-61.8°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11226.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1578.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11869.88</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>377.48</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1336.10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-61.8°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11292.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1454.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11909.57</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>303.44</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1373.46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-61.8°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11363.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1322.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12075.61</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-6.25</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1231.63</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12888.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-110.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1300.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>12859.61</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>154.25</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1299.41</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>19.11</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12880.54</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1293.06</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12881.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12881.79</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12866.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>256.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12839.05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>723.41</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1213.47</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/physical_parameters.xlsx
+++ b/output/physical_parameters.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,22 +494,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>178.0°</t>
+          <t>179.3°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>132.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17783.58</t>
+          <t>17800.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -519,32 +519,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17532.96</t>
+          <t>17432.92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1760.18</t>
+          <t>1762.41</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -552,6 +552,880 @@
           <t>M1</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>179.3°</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>132.54</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17324.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16590.21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1649.42</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>179.3°</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>132.54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17192.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16187.38</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1518.24</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-61.6°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>138.79</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12290.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>862.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12511.52</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>452.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1344.68</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-61.6°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>138.79</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12391.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>674.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12689.10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>123.14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1300.15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-61.6°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>138.79</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12511.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>452.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1400.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12615.82</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>258.94</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1387.65</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6435.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-457.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6487.96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-151.72</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>675.93</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6460.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-309.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6491.24</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-132.57</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>691.97</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80.3°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6485.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-164.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>700.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6490.77</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-135.33</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>699.78</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-61.7°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>139.99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11227.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1578.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11872.92</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>379.29</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1336.10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-61.7°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>139.99</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11293.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1455.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11912.74</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>305.34</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1373.46</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-61.7°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>139.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11418.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1223.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1800.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12157.38</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-148.87</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1192.79</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12888.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-113.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12881.51</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1294.38</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12881.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12881.67</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>93.4°</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12866.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>256.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1300.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12839.08</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>722.83</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1213.56</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
